--- a/biology/Médecine/Trichologie/Trichologie.xlsx
+++ b/biology/Médecine/Trichologie/Trichologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La trichologie (du grec tricho, cheveu) définit étymologiquement la branche de la science qui s'occupe de l'étude des cheveux. Ce terme est aussi utilisé pour désigner une spécialité médicale en dermatologie concernant les implants de follicules. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lotions trichologiques sont des lotions pour les cheveux.
 Un institut de trichologie est une clinique pour les implants capillaires ou un salon d'esthétique.
